--- a/biology/Zoologie/Haludaria/Haludaria.xlsx
+++ b/biology/Zoologie/Haludaria/Haludaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haludaria est un genre de poissons d'eau douce téléostéens de la famille des Cyprinidae (ordre des Cypriniformes). Ces poissons sont originaires de l’Inde.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (10 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (10 janvier 2024) :
 Haludaria afasciata (Jayaram, 1990)
 Haludaria fasciata (Jerdon, 1849)
 Haludaria kannikattiensis (Arunachalam &amp; Johnson, 2003)
@@ -545,12 +559,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Haludaria Pethiyagoda, 2013[1].
-Haludaria a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Haludaria Pethiyagoda, 2013.
+Haludaria a pour synonyme :
 Dravidia Pethiyagoda, Meegaskumbura &amp; Maduwage, 2012
-À l’origine ce genre fut nommé « Dravidia » par Pethiyagoda, Meegaskumbura &amp; Maduwage 2012, mais Andy Lehrer avait déjà utilisé ce nom pour des diptères en 2010[2].
+À l’origine ce genre fut nommé « Dravidia » par Pethiyagoda, Meegaskumbura &amp; Maduwage 2012, mais Andy Lehrer avait déjà utilisé ce nom pour des diptères en 2010.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Haludaria, a été donné en l'honneur de Haluda, le jeune artiste bengali qui, en 1797, réalisa les illustrations utilisées par Francis Day (1829-1889) dans son livre sur les poissons du Gange, An account of the fishes found in the river Ganges and its branches[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Haludaria, a été donné en l'honneur de Haluda, le jeune artiste bengali qui, en 1797, réalisa les illustrations utilisées par Francis Day (1829-1889) dans son livre sur les poissons du Gange, An account of the fishes found in the river Ganges and its branches.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R. Pethiyagoda, « Haludaria, a replacement generic name for Dravidia (Teleostei: Cyprinidae) », Zootaxa, Auckland, vol. 3646, no 2,‎ mai 2013, p. 199 (ISSN 1175-5326, e-ISSN 1175-5334, lire en ligne).</t>
         </is>
